--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2697207.700069758</v>
+        <v>2694831.073122392</v>
       </c>
     </row>
     <row r="7">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>356.4429164012358</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>87.99748334856798</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>127.7791209619803</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,19 +823,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>185.2705165323378</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75.49088380154204</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -947,16 +947,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>345.7367844058004</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>176.410837212323</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>18.77568304716637</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -1114,10 +1114,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>139.2262475794328</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>255.1854643015956</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705016</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>120.3332554667399</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>50.84815278861496</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -1351,10 +1351,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>100.58583229927</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1661,7 +1661,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>45.66054613217656</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>79.0585636675447</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>41.01175877060098</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3190,16 +3190,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>32.84316668127778</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>26.05480806223599</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>193.7663624135851</v>
       </c>
     </row>
     <row r="44">
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1935.292509403255</v>
+        <v>1202.59552936621</v>
       </c>
       <c r="C2" t="n">
-        <v>1566.329992462844</v>
+        <v>1202.59552936621</v>
       </c>
       <c r="D2" t="n">
-        <v>1208.064293856093</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>822.2760412578489</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>411.2901364682413</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2308.758267664335</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2308.758267664335</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1935.292509403255</v>
+        <v>1202.59552936621</v>
       </c>
       <c r="Y2" t="n">
-        <v>1935.292509403255</v>
+        <v>1202.59552936621</v>
       </c>
     </row>
     <row r="3">
@@ -4398,37 +4398,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>343.626060018204</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>638.3296170496758</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341571</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560478</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>918.7469765594642</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.23396574994</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1337.23396574994</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>1337.23396574994</v>
+        <v>859.5709967387894</v>
       </c>
       <c r="W4" t="n">
-        <v>1047.81679571298</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="X4" t="n">
-        <v>1047.81679571298</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="Y4" t="n">
-        <v>1047.81679571298</v>
+        <v>383.0118908105785</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2361.386702945269</v>
+        <v>1295.021456295685</v>
       </c>
       <c r="C5" t="n">
-        <v>1992.424186004858</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="D5" t="n">
-        <v>1634.158487398107</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926625</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926625</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W5" t="n">
-        <v>2437.640120926625</v>
+        <v>1295.021456295685</v>
       </c>
       <c r="X5" t="n">
-        <v>2437.640120926625</v>
+        <v>1295.021456295685</v>
       </c>
       <c r="Y5" t="n">
-        <v>2437.640120926625</v>
+        <v>1295.021456295685</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4632,40 +4632,40 @@
         <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>551.2876347907469</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>845.9911918222185</v>
       </c>
       <c r="M6" t="n">
-        <v>1025.614745646621</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4683,7 +4683,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.2467865680031</v>
+        <v>368.0960630783031</v>
       </c>
       <c r="C7" t="n">
-        <v>51.2467865680031</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D7" t="n">
-        <v>51.2467865680031</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4750,25 +4750,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1514.8973771788</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1514.8973771788</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U7" t="n">
-        <v>1225.779039682638</v>
+        <v>1021.765895288652</v>
       </c>
       <c r="V7" t="n">
-        <v>971.0945514767509</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="W7" t="n">
-        <v>681.6773814397902</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="X7" t="n">
-        <v>453.6878305417729</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="Y7" t="n">
-        <v>232.8952513982428</v>
+        <v>546.2888279392355</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1844.676600992461</v>
+        <v>1653.287154902436</v>
       </c>
       <c r="C8" t="n">
-        <v>1475.714084052049</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="D8" t="n">
-        <v>1117.448385445299</v>
+        <v>926.0589393552734</v>
       </c>
       <c r="E8" t="n">
-        <v>731.6601328470547</v>
+        <v>540.2706867570292</v>
       </c>
       <c r="F8" t="n">
-        <v>320.6742280574471</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G8" t="n">
-        <v>309.0098818221401</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800307</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800307</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362816</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872908</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723848</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400154</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056583</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W8" t="n">
-        <v>2231.276441056583</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="X8" t="n">
-        <v>2231.276441056583</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="Y8" t="n">
-        <v>2231.276441056583</v>
+        <v>1793.919728214994</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800307</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.427330237016</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380235</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L9" t="n">
-        <v>909.246581869495</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828715</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>172.7955294637</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="C10" t="n">
-        <v>51.24678656800307</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800307</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800307</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800307</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800307</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800307</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800307</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312191</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020474</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693231</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096583</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1585.084349580947</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1388.455601740808</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1165.477120935544</v>
       </c>
       <c r="U10" t="n">
-        <v>1347.327782578335</v>
+        <v>876.3587834393812</v>
       </c>
       <c r="V10" t="n">
-        <v>1092.643294372448</v>
+        <v>621.6742952334944</v>
       </c>
       <c r="W10" t="n">
-        <v>803.2261243354872</v>
+        <v>621.6742952334944</v>
       </c>
       <c r="X10" t="n">
-        <v>575.2365734374698</v>
+        <v>621.6742952334944</v>
       </c>
       <c r="Y10" t="n">
-        <v>354.4439942939397</v>
+        <v>400.8817160899642</v>
       </c>
     </row>
     <row r="11">
@@ -5030,22 +5030,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>662.1522880254209</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>493.2161050975141</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2345.361232772917</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2125.759767795858</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1836.684541140056</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1582.000052934169</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1292.582882897208</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1064.593331999191</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>843.8007528556607</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5270,25 +5270,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,31 +5297,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,25 +5495,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5595,22 +5595,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
@@ -5738,16 +5738,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5759,13 +5759,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5777,25 +5777,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,19 +5823,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M21" t="n">
         <v>680.0291294438176</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5978,37 +5978,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6427,7 +6427,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="29">
@@ -6449,16 +6449,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6467,7 +6467,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6488,10 +6488,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273902</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273902</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
@@ -6686,16 +6686,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,19 +7072,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>554.5813165460164</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>385.6451336181095</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D40" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2420.645095638608</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2237.790261293512</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2018.188796316454</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1729.113569660651</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1474.429081454764</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1185.011911417804</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>957.0223605197863</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>736.2297813762561</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="44">
@@ -7640,10 +7640,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7655,13 +7655,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7725,19 +7725,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7783,19 +7783,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8058,16 +8058,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>45.76488231024513</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179984</v>
+        <v>273.6534998179981</v>
       </c>
       <c r="N3" t="n">
-        <v>231.2582814363245</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>129.4330134067484</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>70.03064962107908</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.3877325071649</v>
+        <v>249.3877325071651</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787836</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>138.939397511105</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154994</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>80.44045370237458</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>99.76050189075468</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>88.18825743108313</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>177.5728945814938</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,16 +25078,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>41.54258064659093</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>40.32043864788569</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>24.81829093850965</v>
       </c>
     </row>
     <row r="44">
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>16.31315520054598</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>773498.6533206413</v>
+        <v>773498.6533206414</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>773498.6533206413</v>
+        <v>773498.6533206414</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>773498.6533206413</v>
+        <v>773498.6533206414</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>773498.6533206414</v>
+        <v>773498.6533206415</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>773498.6533206413</v>
+        <v>773498.6533206414</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>773498.6533206414</v>
+        <v>773498.6533206413</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>773498.6533206413</v>
+        <v>773498.6533206414</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>773498.6533206413</v>
+        <v>773498.6533206414</v>
       </c>
     </row>
     <row r="16">
@@ -26314,19 +26314,19 @@
         <v>656833.4158914271</v>
       </c>
       <c r="C2" t="n">
+        <v>656833.4158914272</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.415891427</v>
       </c>
-      <c r="D2" t="n">
-        <v>656833.4158914271</v>
-      </c>
       <c r="E2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="H2" t="n">
         <v>645717.2797520048</v>
@@ -26335,25 +26335,25 @@
         <v>645717.2797520048</v>
       </c>
       <c r="J2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="L2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="K2" t="n">
-        <v>645717.2797520047</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="N2" t="n">
         <v>645717.2797520048</v>
       </c>
-      <c r="M2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="P2" t="n">
         <v>645717.2797520049</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645717.2797520048</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,34 +26421,34 @@
         <v>133113.8635467444</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467445</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719679</v>
+        <v>7507.368461719727</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171969</v>
       </c>
       <c r="H4" t="n">
+        <v>7507.3684617197</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7507.368461719676</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7507.368461719678</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7507.368461719682</v>
+      </c>
+      <c r="L4" t="n">
         <v>7507.36846171969</v>
       </c>
-      <c r="I4" t="n">
-        <v>7507.368461719667</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7507.368461719676</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7507.368461719701</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7507.368461719676</v>
-      </c>
       <c r="M4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171968</v>
       </c>
       <c r="N4" t="n">
         <v>7507.368461719667</v>
@@ -26470,10 +26470,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984467</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-683970.0036710814</v>
+        <v>-683970.0036710816</v>
       </c>
       <c r="C6" t="n">
-        <v>430781.779904838</v>
+        <v>430781.7799048381</v>
       </c>
       <c r="D6" t="n">
-        <v>430781.7799048382</v>
+        <v>430781.7799048377</v>
       </c>
       <c r="E6" t="n">
-        <v>29601.93984183203</v>
+        <v>29567.20191639657</v>
       </c>
       <c r="F6" t="n">
-        <v>537087.3814663782</v>
+        <v>537052.6435409428</v>
       </c>
       <c r="G6" t="n">
-        <v>537087.381466378</v>
+        <v>537052.6435409425</v>
       </c>
       <c r="H6" t="n">
-        <v>537087.381466378</v>
+        <v>537052.6435409423</v>
       </c>
       <c r="I6" t="n">
-        <v>537087.381466378</v>
+        <v>537052.6435409423</v>
       </c>
       <c r="J6" t="n">
-        <v>369482.2036563957</v>
+        <v>369447.4657309602</v>
       </c>
       <c r="K6" t="n">
-        <v>537087.3814663779</v>
+        <v>537052.6435409423</v>
       </c>
       <c r="L6" t="n">
-        <v>537087.381466378</v>
+        <v>537052.6435409426</v>
       </c>
       <c r="M6" t="n">
-        <v>404480.0877374512</v>
+        <v>404445.3498120158</v>
       </c>
       <c r="N6" t="n">
-        <v>537087.3814663781</v>
+        <v>537052.6435409423</v>
       </c>
       <c r="O6" t="n">
-        <v>537087.381466378</v>
+        <v>537052.6435409427</v>
       </c>
       <c r="P6" t="n">
-        <v>537087.381466378</v>
+        <v>537052.6435409425</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175389</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000387</v>
+      </c>
+      <c r="C4" t="n">
+        <v>640.584832100039</v>
+      </c>
+      <c r="D4" t="n">
         <v>640.5848321000389</v>
-      </c>
-      <c r="C4" t="n">
-        <v>640.5848321000387</v>
-      </c>
-      <c r="D4" t="n">
-        <v>640.5848321000384</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>55.10478637171821</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>281.7336173299011</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.05285921995697</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,19 +27543,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,13 +27588,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>33.31413681975695</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>307.2429578619385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>3.504184311612619</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>3.421142969614266</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27822,10 +27822,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>175.8867773145711</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,10 +27834,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>243.5075940840478</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>45.83308826080977</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247052</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>46.91356563188791</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,10 +28023,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195737</v>
+        <v>50.70941963095866</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181058</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857141</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767378</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730002</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166592</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190643</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.501508014705</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436492</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>189.817847557584</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177242</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040586</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000169</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231071</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335769</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31686,34 +31686,34 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169136</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759582</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523477</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069559</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024982</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31853,7 +31853,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31862,7 +31862,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,31 +32075,31 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>195.7502366106279</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,25 +32315,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>491.1355220041058</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,19 +32546,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,28 +33026,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,28 +33260,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>567.7870775946151</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33497,19 +33497,19 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33518,10 +33518,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33731,22 +33731,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,10 +33755,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33974,10 +33974,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>364.3208035245835</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34135,13 +34135,13 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34445,10 +34445,10 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>232.35237855373</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N3" t="n">
-        <v>622.4553810291984</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,19 +35012,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>316.0205096502332</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>436.9619819031195</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="O6" t="n">
         <v>335.424681996123</v>
@@ -35033,10 +35033,10 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067505</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457275</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949725</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637947</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402555</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939896</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313207</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.68036063785</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820403</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928738</v>
+        <v>530.136497103979</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961228</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235321</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870589</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831068</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805397</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35501,7 +35501,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35510,7 +35510,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36194,19 +36194,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36908,28 +36908,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>425.1908331501707</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37166,10 +37166,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37379,22 +37379,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,10 +37403,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37622,10 +37622,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>224.339029438562</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37783,13 +37783,13 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
